--- a/biology/Histoire de la zoologie et de la botanique/William_Maclure/William_Maclure.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Maclure/William_Maclure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William James Maclure est un géologue et pédagogue américain, né le 27 octobre 1763 à Ayr, Écosse et mort le 23 mars 1840 à San Angel, près de Mexico.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de David et d’Ann (née Kennedy) McClure. Il est baptisé James mais il changera plus tard son prénom en William ainsi que la graphie de son nom de famille. William a deux frères, Alexander et John, et trois sœurs, Helen, Anna et Margaret. La famille s’installe à Glasgow puis à Liverpool.
 Le jeune William commence ses études à Ayr et semble n’avoir fréquenté aucune école supérieure. Il commence à travailler dans le commerce très tôt. La date de son premier voyage n’est pas connue avec précision, mais les années 1778 et 1782 ont été avancées par ses biographes. À partir de 1782, il devient le représentant à Londres d’une firme américaine, Miller, Hart and Co. et peut, dès lors, voyager fréquemment en Europe durant les quinze années suivantes. Il s’installe à Philadelphie en 1796 et obtient la nationalité américaine à Détroit la même année.
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.  (ISBN 0-313-23047-1)
 Maclure est l’abréviation botanique standard de William Maclure.
